--- a/학습자료/단답형/국어_복습_사이시옷.xlsx
+++ b/학습자료/단답형/국어_복습_사이시옷.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,11 +446,6 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>구분</t>
         </is>
       </c>
@@ -466,11 +461,6 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -486,11 +476,6 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -506,11 +491,6 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -526,11 +506,6 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -546,11 +521,6 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -566,11 +536,6 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -586,11 +551,6 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -606,11 +566,6 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>사이시옷</t>
         </is>
       </c>
@@ -625,11 +580,6 @@
         <v>2</v>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>3일차</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>사이시옷</t>
         </is>

--- a/학습자료/단답형/국어_복습_사이시옷.xlsx
+++ b/학습자료/단답형/국어_복습_사이시옷.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
